--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl12-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl12-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Ccr5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>40.32940166666667</v>
+        <v>1.005755333333333</v>
       </c>
       <c r="H2">
-        <v>120.988205</v>
+        <v>3.017266</v>
       </c>
       <c r="I2">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="J2">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N2">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O2">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P2">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q2">
-        <v>1.585053030571111</v>
+        <v>0.9496767627091112</v>
       </c>
       <c r="R2">
-        <v>14.26547727514</v>
+        <v>8.547090864382</v>
       </c>
       <c r="S2">
-        <v>0.0001364343852105903</v>
+        <v>7.182221211714243E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001364343852105903</v>
+        <v>7.182221211714243E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>40.32940166666667</v>
+        <v>1.005755333333333</v>
       </c>
       <c r="H3">
-        <v>120.988205</v>
+        <v>3.017266</v>
       </c>
       <c r="I3">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="J3">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N3">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O3">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P3">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q3">
-        <v>2455.094779875155</v>
+        <v>82.95241381146067</v>
       </c>
       <c r="R3">
-        <v>22095.85301887639</v>
+        <v>746.571724303146</v>
       </c>
       <c r="S3">
-        <v>0.2113237478277348</v>
+        <v>0.006273530209794765</v>
       </c>
       <c r="T3">
-        <v>0.2113237478277348</v>
+        <v>0.006273530209794765</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>40.32940166666667</v>
+        <v>1.005755333333333</v>
       </c>
       <c r="H4">
-        <v>120.988205</v>
+        <v>3.017266</v>
       </c>
       <c r="I4">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="J4">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N4">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O4">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P4">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q4">
-        <v>440.8389016815262</v>
+        <v>9.823145960814667</v>
       </c>
       <c r="R4">
-        <v>3967.550115133735</v>
+        <v>88.40831364733199</v>
       </c>
       <c r="S4">
-        <v>0.03794547145603061</v>
+        <v>0.0007429054816953385</v>
       </c>
       <c r="T4">
-        <v>0.0379454714560306</v>
+        <v>0.0007429054816953385</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>40.32940166666667</v>
+        <v>1.005755333333333</v>
       </c>
       <c r="H5">
-        <v>120.988205</v>
+        <v>3.017266</v>
       </c>
       <c r="I5">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="J5">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N5">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O5">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P5">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q5">
-        <v>2569.501683589707</v>
+        <v>44.94405984398399</v>
       </c>
       <c r="R5">
-        <v>23125.51515230736</v>
+        <v>404.4965385958559</v>
       </c>
       <c r="S5">
-        <v>0.2211713903173479</v>
+        <v>0.003399032098365559</v>
       </c>
       <c r="T5">
-        <v>0.2211713903173479</v>
+        <v>0.00339903209836556</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.718179666666666</v>
+        <v>38.755371</v>
       </c>
       <c r="H6">
-        <v>29.154539</v>
+        <v>116.266113</v>
       </c>
       <c r="I6">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="J6">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N6">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O6">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P6">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q6">
-        <v>0.3819503760457778</v>
+        <v>36.594461942239</v>
       </c>
       <c r="R6">
-        <v>3.437553384412</v>
+        <v>329.350157480151</v>
       </c>
       <c r="S6">
-        <v>3.28766064804679E-05</v>
+        <v>0.002767568199131814</v>
       </c>
       <c r="T6">
-        <v>3.287660648046791E-05</v>
+        <v>0.002767568199131814</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.718179666666666</v>
+        <v>38.755371</v>
       </c>
       <c r="H7">
-        <v>29.154539</v>
+        <v>116.266113</v>
       </c>
       <c r="I7">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="J7">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N7">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O7">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P7">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q7">
-        <v>591.6044172121292</v>
+        <v>3196.454909121717</v>
       </c>
       <c r="R7">
-        <v>5324.439754909163</v>
+        <v>28768.09418209545</v>
       </c>
       <c r="S7">
-        <v>0.05092270314837598</v>
+        <v>0.2417416867723667</v>
       </c>
       <c r="T7">
-        <v>0.05092270314837598</v>
+        <v>0.2417416867723667</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.718179666666666</v>
+        <v>38.755371</v>
       </c>
       <c r="H8">
-        <v>29.154539</v>
+        <v>116.266113</v>
       </c>
       <c r="I8">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="J8">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N8">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O8">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P8">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q8">
-        <v>106.2289910970348</v>
+        <v>378.521150702514</v>
       </c>
       <c r="R8">
-        <v>956.060919873313</v>
+        <v>3406.690356322626</v>
       </c>
       <c r="S8">
-        <v>0.00914372378231606</v>
+        <v>0.02862682066583114</v>
       </c>
       <c r="T8">
-        <v>0.00914372378231606</v>
+        <v>0.02862682066583114</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,14 +956,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.718179666666666</v>
+        <v>38.755371</v>
       </c>
       <c r="H9">
-        <v>29.154539</v>
+        <v>116.266113</v>
       </c>
       <c r="I9">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="J9">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N9">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O9">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P9">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q9">
-        <v>619.1730594298987</v>
+        <v>1731.856303189512</v>
       </c>
       <c r="R9">
-        <v>5572.557534869088</v>
+        <v>15586.70672870561</v>
       </c>
       <c r="S9">
-        <v>0.05329569047405358</v>
+        <v>0.1309769340983517</v>
       </c>
       <c r="T9">
-        <v>0.05329569047405359</v>
+        <v>0.1309769340983517</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1018,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.65443533333333</v>
+        <v>7.988471999999999</v>
       </c>
       <c r="H10">
-        <v>106.963306</v>
+        <v>23.965416</v>
       </c>
       <c r="I10">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="J10">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N10">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O10">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P10">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q10">
-        <v>1.401314387094222</v>
+        <v>7.543053441047999</v>
       </c>
       <c r="R10">
-        <v>12.611829483848</v>
+        <v>67.887480969432</v>
       </c>
       <c r="S10">
-        <v>0.0001206189718593002</v>
+        <v>0.000570466505580734</v>
       </c>
       <c r="T10">
-        <v>0.0001206189718593002</v>
+        <v>0.000570466505580734</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,13 +1080,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>35.65443533333333</v>
+        <v>7.988471999999999</v>
       </c>
       <c r="H11">
-        <v>106.963306</v>
+        <v>23.965416</v>
       </c>
       <c r="I11">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="J11">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N11">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O11">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P11">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q11">
-        <v>2170.501283152261</v>
+        <v>658.8710127631439</v>
       </c>
       <c r="R11">
-        <v>19534.51154837035</v>
+        <v>5929.839114868295</v>
       </c>
       <c r="S11">
-        <v>0.1868271928157363</v>
+        <v>0.04982913712821435</v>
       </c>
       <c r="T11">
-        <v>0.1868271928157363</v>
+        <v>0.04982913712821435</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,13 +1142,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>35.65443533333333</v>
+        <v>7.988471999999999</v>
       </c>
       <c r="H12">
-        <v>106.963306</v>
+        <v>23.965416</v>
       </c>
       <c r="I12">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="J12">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N12">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O12">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P12">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q12">
-        <v>389.7370519487002</v>
+        <v>78.02287878484799</v>
       </c>
       <c r="R12">
-        <v>3507.633467538302</v>
+        <v>702.2059090636319</v>
       </c>
       <c r="S12">
-        <v>0.03354684925415388</v>
+        <v>0.005900719034221435</v>
       </c>
       <c r="T12">
-        <v>0.03354684925415388</v>
+        <v>0.005900719034221435</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.988471999999999</v>
+      </c>
+      <c r="H13">
+        <v>23.965416</v>
+      </c>
+      <c r="I13">
+        <v>0.08329801469605898</v>
+      </c>
+      <c r="J13">
+        <v>0.08329801469605898</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>44.68687199999999</v>
+      </c>
+      <c r="N13">
+        <v>134.060616</v>
+      </c>
+      <c r="O13">
+        <v>0.3241096696788354</v>
+      </c>
+      <c r="P13">
+        <v>0.3241096696788355</v>
+      </c>
+      <c r="Q13">
+        <v>356.9798257395839</v>
+      </c>
+      <c r="R13">
+        <v>3212.818431656255</v>
+      </c>
+      <c r="S13">
+        <v>0.02699769202804245</v>
+      </c>
+      <c r="T13">
+        <v>0.02699769202804246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>48.15271133333334</v>
+      </c>
+      <c r="H14">
+        <v>144.458134</v>
+      </c>
+      <c r="I14">
+        <v>0.5021016855662869</v>
+      </c>
+      <c r="J14">
+        <v>0.5021016855662868</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.9442423333333334</v>
+      </c>
+      <c r="N14">
+        <v>2.832727</v>
+      </c>
+      <c r="O14">
+        <v>0.006848500623481535</v>
+      </c>
+      <c r="P14">
+        <v>0.006848500623481536</v>
+      </c>
+      <c r="Q14">
+        <v>45.46782850571311</v>
+      </c>
+      <c r="R14">
+        <v>409.210456551418</v>
+      </c>
+      <c r="S14">
+        <v>0.003438643706651845</v>
+      </c>
+      <c r="T14">
+        <v>0.003438643706651845</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>48.15271133333334</v>
+      </c>
+      <c r="H15">
+        <v>144.458134</v>
+      </c>
+      <c r="I15">
+        <v>0.5021016855662869</v>
+      </c>
+      <c r="J15">
+        <v>0.5021016855662868</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>82.477727</v>
+      </c>
+      <c r="N15">
+        <v>247.433181</v>
+      </c>
+      <c r="O15">
+        <v>0.5982031781913751</v>
+      </c>
+      <c r="P15">
+        <v>0.5982031781913751</v>
+      </c>
+      <c r="Q15">
+        <v>3971.526179660473</v>
+      </c>
+      <c r="R15">
+        <v>35743.73561694425</v>
+      </c>
+      <c r="S15">
+        <v>0.3003588240809993</v>
+      </c>
+      <c r="T15">
+        <v>0.3003588240809992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>35.65443533333333</v>
-      </c>
-      <c r="H13">
-        <v>106.963306</v>
-      </c>
-      <c r="I13">
-        <v>0.41602796200245</v>
-      </c>
-      <c r="J13">
-        <v>0.41602796200245</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>63.712864</v>
-      </c>
-      <c r="N13">
-        <v>191.138592</v>
-      </c>
-      <c r="O13">
-        <v>0.470000381752102</v>
-      </c>
-      <c r="P13">
-        <v>0.470000381752102</v>
-      </c>
-      <c r="Q13">
-        <v>2271.646189389461</v>
-      </c>
-      <c r="R13">
-        <v>20444.81570450515</v>
-      </c>
-      <c r="S13">
-        <v>0.1955333009607005</v>
-      </c>
-      <c r="T13">
-        <v>0.1955333009607005</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>48.15271133333334</v>
+      </c>
+      <c r="H16">
+        <v>144.458134</v>
+      </c>
+      <c r="I16">
+        <v>0.5021016855662869</v>
+      </c>
+      <c r="J16">
+        <v>0.5021016855662868</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>9.766934000000001</v>
+      </c>
+      <c r="N16">
+        <v>29.300802</v>
+      </c>
+      <c r="O16">
+        <v>0.07083865150630789</v>
+      </c>
+      <c r="P16">
+        <v>0.07083865150630789</v>
+      </c>
+      <c r="Q16">
+        <v>470.3043535137188</v>
+      </c>
+      <c r="R16">
+        <v>4232.739181623469</v>
+      </c>
+      <c r="S16">
+        <v>0.03556820632455997</v>
+      </c>
+      <c r="T16">
+        <v>0.03556820632455997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>48.15271133333334</v>
+      </c>
+      <c r="H17">
+        <v>144.458134</v>
+      </c>
+      <c r="I17">
+        <v>0.5021016855662869</v>
+      </c>
+      <c r="J17">
+        <v>0.5021016855662868</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>44.68687199999999</v>
+      </c>
+      <c r="N17">
+        <v>134.060616</v>
+      </c>
+      <c r="O17">
+        <v>0.3241096696788354</v>
+      </c>
+      <c r="P17">
+        <v>0.3241096696788355</v>
+      </c>
+      <c r="Q17">
+        <v>2151.794047805616</v>
+      </c>
+      <c r="R17">
+        <v>19366.14643025054</v>
+      </c>
+      <c r="S17">
+        <v>0.1627360114540757</v>
+      </c>
+      <c r="T17">
+        <v>0.1627360114540757</v>
       </c>
     </row>
   </sheetData>
